--- a/output/0/tRNA-Leu-TAA-1-1.xlsx
+++ b/output/0/tRNA-Leu-TAA-1-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>144537603</t>
-  </si>
-  <si>
-    <t>144537626</t>
+    <t>144537690</t>
+  </si>
+  <si>
+    <t>144537713</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>144537623</t>
+    <t>144537710</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,97 +38,46 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>TGCGTTCTGGAGGGAGGGTG</t>
+    <t>TGGCCGAGTGGTTAAGGCGT</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>59% (53)</t>
+  </si>
+  <si>
+    <t>79% (60)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>144537693</t>
+  </si>
+  <si>
+    <t>144537716</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>144537696</t>
+  </si>
+  <si>
+    <t>AGTCCAACGCCTTAACCACT</t>
   </si>
   <si>
     <t>CGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>18% (37)</t>
-  </si>
-  <si>
-    <t>97% (80)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>144537604</t>
-  </si>
-  <si>
-    <t>144537627</t>
-  </si>
-  <si>
-    <t>144537624</t>
-  </si>
-  <si>
-    <t>GCGTTCTGGAGGGAGGGTGC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>25% (41)</t>
-  </si>
-  <si>
-    <t>91% (70)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>144537690</t>
-  </si>
-  <si>
-    <t>144537713</t>
-  </si>
-  <si>
-    <t>144537710</t>
-  </si>
-  <si>
-    <t>TGGCCGAGTGGTTAAGGCGT</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>79% (60)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>144537693</t>
-  </si>
-  <si>
-    <t>144537716</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>144537696</t>
-  </si>
-  <si>
-    <t>AGTCCAACGCCTTAACCACT</t>
   </si>
   <si>
     <t>78% (59)</t>
@@ -233,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -312,13 +261,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -330,25 +279,25 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -362,10 +311,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -374,10 +323,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -389,10 +338,10 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
@@ -430,10 +379,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -448,148 +397,30 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>41</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
         <v>3</v>
       </c>
     </row>
